--- a/PLANNING/Task Planning.xlsx
+++ b/PLANNING/Task Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareProjects\Unity\Band-Battle\PLANNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECEFF4C-BF09-40AB-ADB5-8D6CF4BF04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF412C-ADB8-4D87-8688-FCCF830EFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{70D4C62D-D84E-421C-8B35-459A60CD8044}"/>
   </bookViews>
@@ -856,7 +856,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -934,10 +934,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,39 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -1316,7 +1312,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,69 +1325,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
+      <c r="F1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F2" s="32"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F3" s="29"/>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F4" s="31"/>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
     </row>
     <row r="5" spans="1:60" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="30"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="7" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
@@ -1400,78 +1396,78 @@
       <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="44" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="44" t="s">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="44" t="s">
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="44" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="44" t="s">
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="44" t="s">
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="44" t="s">
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="45"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="64"/>
     </row>
     <row r="8" spans="1:60" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
@@ -1904,7 +1900,7 @@
       <c r="BH10" s="7"/>
     </row>
     <row r="11" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -1916,62 +1912,61 @@
       <c r="D11" s="33">
         <v>0</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="55"/>
-      <c r="AX11" s="55"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="56"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="55"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="55"/>
-      <c r="BF11" s="55"/>
-      <c r="BG11" s="55"/>
-      <c r="BH11" s="56"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="45"/>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="46"/>
     </row>
     <row r="12" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
@@ -1982,62 +1977,32 @@
       <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="61"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="59"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="35"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="35"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="35"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="35"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="35"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="57"/>
+      <c r="BH12" s="36"/>
     </row>
     <row r="13" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
@@ -2050,62 +2015,24 @@
       <c r="D13" s="33">
         <v>0</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="61"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="61"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="61"/>
-      <c r="BF13" s="61"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="59"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="35"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="35"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="35"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="35"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="35"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="35"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="57"/>
+      <c r="BH13" s="36"/>
     </row>
     <row r="14" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
@@ -2118,65 +2045,27 @@
       <c r="D14" s="33">
         <v>0</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="59"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="35"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="35"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="35"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="35"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="35"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="57"/>
+      <c r="BH14" s="36"/>
     </row>
     <row r="15" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -2188,62 +2077,62 @@
       <c r="D15" s="33">
         <v>0</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="58"/>
-      <c r="BE15" s="58"/>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="59"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="58"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
     </row>
     <row r="16" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
@@ -2255,61 +2144,26 @@
         <v>0</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="58"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="58"/>
-      <c r="AZ16" s="58"/>
-      <c r="BA16" s="59"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="58"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="58"/>
-      <c r="BG16" s="58"/>
-      <c r="BH16" s="59"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="35"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="54"/>
+      <c r="Y16" s="48"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="35"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="35"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="35"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="57"/>
+      <c r="BH16" s="36"/>
     </row>
     <row r="17" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
@@ -2321,61 +2175,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="35"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="59"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="35"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="35"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="35"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="35"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="35"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="57"/>
+      <c r="BH17" s="36"/>
     </row>
     <row r="18" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
@@ -2387,64 +2208,31 @@
         <v>0</v>
       </c>
       <c r="E18" s="35"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="60"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="59"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="35"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="35"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="35"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="35"/>
+      <c r="AT18" s="58"/>
+      <c r="AU18" s="35"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="57"/>
+      <c r="BH18" s="36"/>
     </row>
     <row r="19" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2456,62 +2244,62 @@
       <c r="D19" s="33">
         <v>0</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="60"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="59"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="51"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
     </row>
     <row r="20" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2523,61 +2311,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="35"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="58"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="60"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="60"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="59"/>
+      <c r="H20" s="54"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="35"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="35"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="35"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="35"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="35"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="35"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="35"/>
+      <c r="BC20" s="57"/>
+      <c r="BH20" s="36"/>
     </row>
     <row r="21" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
@@ -2589,61 +2339,24 @@
         <v>0</v>
       </c>
       <c r="E21" s="35"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="60"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="59"/>
+      <c r="H21" s="56"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="35"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="35"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="35"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="35"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="35"/>
+      <c r="AT21" s="58"/>
+      <c r="AU21" s="35"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="35"/>
+      <c r="BC21" s="57"/>
+      <c r="BH21" s="36"/>
     </row>
     <row r="22" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
@@ -2655,64 +2368,31 @@
         <v>0</v>
       </c>
       <c r="E22" s="35"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="60"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="58"/>
-      <c r="AX22" s="58"/>
-      <c r="AY22" s="58"/>
-      <c r="AZ22" s="58"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="60"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="58"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="58"/>
-      <c r="BG22" s="58"/>
-      <c r="BH22" s="59"/>
+      <c r="H22" s="56"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="35"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="35"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="35"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="35"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="35"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="57"/>
+      <c r="BH22" s="36"/>
     </row>
     <row r="23" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -2722,62 +2402,62 @@
       <c r="D23" s="33">
         <v>0</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="60"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="59"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="58"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
     </row>
     <row r="24" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
@@ -2789,61 +2469,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="35"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="68"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="60"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="58"/>
-      <c r="BA24" s="59"/>
-      <c r="BB24" s="60"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="58"/>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="58"/>
-      <c r="BG24" s="58"/>
-      <c r="BH24" s="59"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="35"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="35"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="35"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="35"/>
+      <c r="AM24" s="54"/>
+      <c r="AN24" s="35"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="35"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="35"/>
+      <c r="BC24" s="57"/>
+      <c r="BH24" s="36"/>
     </row>
     <row r="25" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
@@ -2855,61 +2496,22 @@
         <v>0</v>
       </c>
       <c r="E25" s="35"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="60"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="58"/>
-      <c r="BA25" s="59"/>
-      <c r="BB25" s="60"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="58"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="59"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="35"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="35"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="35"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="35"/>
+      <c r="AT25" s="58"/>
+      <c r="AU25" s="35"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="35"/>
+      <c r="BC25" s="57"/>
+      <c r="BH25" s="36"/>
     </row>
     <row r="26" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
@@ -2921,64 +2523,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="35"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="60"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="58"/>
-      <c r="AX26" s="58"/>
-      <c r="AY26" s="58"/>
-      <c r="AZ26" s="58"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="60"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="58"/>
-      <c r="BF26" s="58"/>
-      <c r="BG26" s="58"/>
-      <c r="BH26" s="59"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="35"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="35"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="35"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="35"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="35"/>
+      <c r="AT26" s="58"/>
+      <c r="AU26" s="35"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="35"/>
+      <c r="BC26" s="57"/>
+      <c r="BH26" s="36"/>
     </row>
     <row r="27" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="51" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="25"/>
@@ -2986,62 +2549,62 @@
       <c r="D27" s="33">
         <v>0</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="58"/>
-      <c r="AX27" s="58"/>
-      <c r="AY27" s="58"/>
-      <c r="AZ27" s="58"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="71"/>
-      <c r="BD27" s="58"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="58"/>
-      <c r="BG27" s="58"/>
-      <c r="BH27" s="59"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="58"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
     </row>
     <row r="28" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
@@ -3053,61 +2616,17 @@
         <v>0</v>
       </c>
       <c r="E28" s="35"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="61"/>
-      <c r="BB28" s="60"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="59"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="35"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="35"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="35"/>
+      <c r="AF28" s="36"/>
+      <c r="AT28" s="58"/>
+      <c r="BB28" s="35"/>
+      <c r="BC28" s="57"/>
+      <c r="BH28" s="36"/>
     </row>
     <row r="29" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
@@ -3119,64 +2638,20 @@
         <v>0</v>
       </c>
       <c r="E29" s="35"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="61"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="61"/>
-      <c r="AN29" s="61"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="58"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="58"/>
-      <c r="AS29" s="58"/>
-      <c r="AT29" s="72"/>
-      <c r="AU29" s="61"/>
-      <c r="AV29" s="58"/>
-      <c r="AW29" s="58"/>
-      <c r="AX29" s="58"/>
-      <c r="AY29" s="58"/>
-      <c r="AZ29" s="58"/>
-      <c r="BA29" s="61"/>
-      <c r="BB29" s="60"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="58"/>
-      <c r="BE29" s="58"/>
-      <c r="BF29" s="58"/>
-      <c r="BG29" s="58"/>
-      <c r="BH29" s="59"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="35"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="35"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="35"/>
+      <c r="AF29" s="36"/>
+      <c r="AT29" s="58"/>
+      <c r="BB29" s="35"/>
+      <c r="BC29" s="57"/>
+      <c r="BH29" s="36"/>
     </row>
     <row r="30" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="25"/>
@@ -3184,62 +2659,62 @@
       <c r="D30" s="33">
         <v>0</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="58"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="58"/>
-      <c r="AP30" s="58"/>
-      <c r="AQ30" s="58"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="58"/>
-      <c r="AT30" s="72"/>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="58"/>
-      <c r="AX30" s="58"/>
-      <c r="AY30" s="58"/>
-      <c r="AZ30" s="58"/>
-      <c r="BA30" s="58"/>
-      <c r="BB30" s="60"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="58"/>
-      <c r="BE30" s="58"/>
-      <c r="BF30" s="58"/>
-      <c r="BG30" s="58"/>
-      <c r="BH30" s="59"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="58"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="51"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="51"/>
+      <c r="BB30" s="51"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="51"/>
+      <c r="BE30" s="51"/>
+      <c r="BF30" s="51"/>
+      <c r="BG30" s="51"/>
+      <c r="BH30" s="51"/>
     </row>
     <row r="31" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
@@ -3251,61 +2726,17 @@
         <v>0</v>
       </c>
       <c r="E31" s="35"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="61"/>
-      <c r="AN31" s="58"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="58"/>
-      <c r="AT31" s="72"/>
-      <c r="AU31" s="58"/>
-      <c r="AV31" s="58"/>
-      <c r="AW31" s="58"/>
-      <c r="AX31" s="58"/>
-      <c r="AY31" s="58"/>
-      <c r="AZ31" s="58"/>
-      <c r="BA31" s="58"/>
-      <c r="BB31" s="60"/>
-      <c r="BC31" s="71"/>
-      <c r="BD31" s="58"/>
-      <c r="BE31" s="58"/>
-      <c r="BF31" s="58"/>
-      <c r="BG31" s="58"/>
-      <c r="BH31" s="59"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="35"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="35"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="35"/>
+      <c r="AF31" s="36"/>
+      <c r="AT31" s="58"/>
+      <c r="BB31" s="35"/>
+      <c r="BC31" s="57"/>
+      <c r="BH31" s="36"/>
     </row>
     <row r="32" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
@@ -3317,61 +2748,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="35"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="58"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="61"/>
-      <c r="AN32" s="58"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="72"/>
-      <c r="AU32" s="58"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="58"/>
-      <c r="AX32" s="58"/>
-      <c r="AY32" s="58"/>
-      <c r="AZ32" s="58"/>
-      <c r="BA32" s="58"/>
-      <c r="BB32" s="60"/>
-      <c r="BC32" s="71"/>
-      <c r="BD32" s="58"/>
-      <c r="BE32" s="58"/>
-      <c r="BF32" s="58"/>
-      <c r="BG32" s="58"/>
-      <c r="BH32" s="59"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="35"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="35"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="35"/>
+      <c r="AF32" s="36"/>
+      <c r="AT32" s="58"/>
+      <c r="BB32" s="35"/>
+      <c r="BC32" s="57"/>
+      <c r="BH32" s="36"/>
     </row>
     <row r="33" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
@@ -3383,61 +2770,17 @@
         <v>0</v>
       </c>
       <c r="E33" s="35"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="61"/>
-      <c r="AN33" s="58"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="58"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="58"/>
-      <c r="AT33" s="72"/>
-      <c r="AU33" s="58"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="58"/>
-      <c r="AX33" s="58"/>
-      <c r="AY33" s="58"/>
-      <c r="AZ33" s="58"/>
-      <c r="BA33" s="58"/>
-      <c r="BB33" s="60"/>
-      <c r="BC33" s="71"/>
-      <c r="BD33" s="58"/>
-      <c r="BE33" s="58"/>
-      <c r="BF33" s="58"/>
-      <c r="BG33" s="58"/>
-      <c r="BH33" s="59"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="35"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="35"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="35"/>
+      <c r="AF33" s="36"/>
+      <c r="AT33" s="58"/>
+      <c r="BB33" s="35"/>
+      <c r="BC33" s="57"/>
+      <c r="BH33" s="36"/>
     </row>
     <row r="34" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
@@ -3449,64 +2792,20 @@
         <v>0</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="61"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="58"/>
-      <c r="BB34" s="60"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="58"/>
-      <c r="BE34" s="58"/>
-      <c r="BF34" s="58"/>
-      <c r="BG34" s="58"/>
-      <c r="BH34" s="59"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="35"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="35"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="35"/>
+      <c r="AF34" s="36"/>
+      <c r="AT34" s="58"/>
+      <c r="BB34" s="35"/>
+      <c r="BC34" s="57"/>
+      <c r="BH34" s="36"/>
     </row>
     <row r="35" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="25"/>
@@ -3514,62 +2813,62 @@
       <c r="D35" s="33">
         <v>0</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="58"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="58"/>
-      <c r="AX35" s="58"/>
-      <c r="AY35" s="58"/>
-      <c r="AZ35" s="58"/>
-      <c r="BA35" s="59"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="71"/>
-      <c r="BD35" s="58"/>
-      <c r="BE35" s="58"/>
-      <c r="BF35" s="58"/>
-      <c r="BG35" s="58"/>
-      <c r="BH35" s="59"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
     </row>
     <row r="36" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
@@ -3581,61 +2880,27 @@
         <v>0</v>
       </c>
       <c r="E36" s="35"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="35"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
       <c r="Y36" s="42"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="58"/>
-      <c r="AJ36" s="58"/>
-      <c r="AK36" s="58"/>
-      <c r="AL36" s="58"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="58"/>
-      <c r="AQ36" s="58"/>
-      <c r="AR36" s="58"/>
-      <c r="AS36" s="58"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="60"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="58"/>
-      <c r="AX36" s="58"/>
-      <c r="AY36" s="58"/>
-      <c r="AZ36" s="58"/>
-      <c r="BA36" s="59"/>
-      <c r="BB36" s="60"/>
-      <c r="BC36" s="71"/>
-      <c r="BD36" s="58"/>
-      <c r="BE36" s="58"/>
-      <c r="BF36" s="58"/>
-      <c r="BG36" s="58"/>
-      <c r="BH36" s="59"/>
+      <c r="Z36" s="35"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="35"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="35"/>
+      <c r="AT36" s="58"/>
+      <c r="AU36" s="35"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="35"/>
+      <c r="BC36" s="57"/>
+      <c r="BH36" s="36"/>
     </row>
     <row r="37" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
@@ -3647,61 +2912,22 @@
         <v>0</v>
       </c>
       <c r="E37" s="35"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58"/>
-      <c r="AJ37" s="58"/>
-      <c r="AK37" s="58"/>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="58"/>
-      <c r="AP37" s="58"/>
-      <c r="AQ37" s="58"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="72"/>
-      <c r="AU37" s="60"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="58"/>
-      <c r="AX37" s="58"/>
-      <c r="AY37" s="58"/>
-      <c r="AZ37" s="58"/>
-      <c r="BA37" s="59"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="58"/>
-      <c r="BE37" s="58"/>
-      <c r="BF37" s="58"/>
-      <c r="BG37" s="58"/>
-      <c r="BH37" s="59"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="35"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="35"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="35"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="35"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="35"/>
+      <c r="AT37" s="58"/>
+      <c r="AU37" s="35"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="54"/>
+      <c r="BC37" s="57"/>
+      <c r="BH37" s="36"/>
     </row>
     <row r="38" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
@@ -3713,61 +2939,27 @@
         <v>0</v>
       </c>
       <c r="E38" s="35"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="53"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
       <c r="Y38" s="42"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="58"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="60"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="58"/>
-      <c r="AQ38" s="58"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="72"/>
-      <c r="AU38" s="60"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="58"/>
-      <c r="AX38" s="58"/>
-      <c r="AY38" s="58"/>
-      <c r="AZ38" s="58"/>
-      <c r="BA38" s="59"/>
-      <c r="BB38" s="60"/>
-      <c r="BC38" s="71"/>
-      <c r="BD38" s="58"/>
-      <c r="BE38" s="58"/>
-      <c r="BF38" s="58"/>
-      <c r="BG38" s="58"/>
-      <c r="BH38" s="59"/>
+      <c r="Z38" s="35"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="35"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="35"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="35"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="35"/>
+      <c r="BC38" s="57"/>
+      <c r="BH38" s="36"/>
     </row>
     <row r="39" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
@@ -3779,61 +2971,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="35"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="58"/>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="60"/>
-      <c r="AO39" s="58"/>
-      <c r="AP39" s="58"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="58"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="72"/>
-      <c r="AU39" s="60"/>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="58"/>
-      <c r="AY39" s="58"/>
-      <c r="AZ39" s="58"/>
-      <c r="BA39" s="59"/>
-      <c r="BB39" s="60"/>
-      <c r="BC39" s="71"/>
-      <c r="BD39" s="58"/>
-      <c r="BE39" s="58"/>
-      <c r="BF39" s="58"/>
-      <c r="BG39" s="58"/>
-      <c r="BH39" s="59"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="35"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="35"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="35"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="35"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="35"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="35"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="35"/>
+      <c r="BC39" s="57"/>
+      <c r="BH39" s="36"/>
     </row>
     <row r="40" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
@@ -3845,61 +2998,22 @@
         <v>0</v>
       </c>
       <c r="E40" s="35"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="58"/>
-      <c r="AJ40" s="58"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="60"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="72"/>
-      <c r="AU40" s="60"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="58"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="58"/>
-      <c r="BA40" s="59"/>
-      <c r="BB40" s="60"/>
-      <c r="BC40" s="71"/>
-      <c r="BD40" s="58"/>
-      <c r="BE40" s="58"/>
-      <c r="BF40" s="58"/>
-      <c r="BG40" s="58"/>
-      <c r="BH40" s="59"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="35"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="35"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="35"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="35"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="35"/>
+      <c r="AT40" s="58"/>
+      <c r="AU40" s="35"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="35"/>
+      <c r="BC40" s="57"/>
+      <c r="BH40" s="36"/>
     </row>
     <row r="41" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
@@ -3911,64 +3025,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="35"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="58"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="60"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="72"/>
-      <c r="AU41" s="60"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="58"/>
-      <c r="AZ41" s="58"/>
-      <c r="BA41" s="59"/>
-      <c r="BB41" s="60"/>
-      <c r="BC41" s="71"/>
-      <c r="BD41" s="58"/>
-      <c r="BE41" s="58"/>
-      <c r="BF41" s="58"/>
-      <c r="BG41" s="58"/>
-      <c r="BH41" s="59"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="35"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="35"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="35"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="35"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="35"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="35"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="35"/>
+      <c r="BC41" s="57"/>
+      <c r="BH41" s="36"/>
     </row>
     <row r="42" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="25"/>
@@ -3976,62 +3051,62 @@
       <c r="D42" s="33">
         <v>0</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="58"/>
-      <c r="AJ42" s="58"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="59"/>
-      <c r="AN42" s="60"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="58"/>
-      <c r="AQ42" s="58"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="72"/>
-      <c r="AU42" s="60"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58"/>
-      <c r="AY42" s="58"/>
-      <c r="AZ42" s="58"/>
-      <c r="BA42" s="59"/>
-      <c r="BB42" s="60"/>
-      <c r="BC42" s="71"/>
-      <c r="BD42" s="58"/>
-      <c r="BE42" s="58"/>
-      <c r="BF42" s="58"/>
-      <c r="BG42" s="58"/>
-      <c r="BH42" s="59"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="51"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="51"/>
+      <c r="AV42" s="51"/>
+      <c r="AW42" s="51"/>
+      <c r="AX42" s="51"/>
+      <c r="AY42" s="51"/>
+      <c r="AZ42" s="51"/>
+      <c r="BA42" s="51"/>
+      <c r="BB42" s="51"/>
+      <c r="BC42" s="57"/>
+      <c r="BD42" s="51"/>
+      <c r="BE42" s="51"/>
+      <c r="BF42" s="51"/>
+      <c r="BG42" s="51"/>
+      <c r="BH42" s="51"/>
     </row>
     <row r="43" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
@@ -4043,61 +3118,27 @@
         <v>0</v>
       </c>
       <c r="E43" s="35"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="58"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="60"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="59"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="58"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="72"/>
-      <c r="AU43" s="69"/>
-      <c r="AV43" s="69"/>
-      <c r="AW43" s="69"/>
-      <c r="AX43" s="69"/>
-      <c r="AY43" s="69"/>
-      <c r="AZ43" s="69"/>
-      <c r="BA43" s="69"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="35"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="35"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="35"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="35"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="35"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="55"/>
+      <c r="AV43" s="55"/>
+      <c r="AW43" s="55"/>
+      <c r="AX43" s="55"/>
+      <c r="AY43" s="55"/>
+      <c r="AZ43" s="55"/>
+      <c r="BA43" s="55"/>
       <c r="BB43" s="31"/>
-      <c r="BC43" s="58"/>
-      <c r="BD43" s="58"/>
-      <c r="BE43" s="58"/>
-      <c r="BF43" s="58"/>
-      <c r="BG43" s="58"/>
-      <c r="BH43" s="59"/>
+      <c r="BC43" s="57"/>
+      <c r="BH43" s="36"/>
     </row>
     <row r="44" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
@@ -5422,18 +4463,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5575,6 +4616,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4962763A-021A-4368-9A4A-00367974B297}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5587,14 +4636,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PLANNING/Task Planning.xlsx
+++ b/PLANNING/Task Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareProjects\Unity\Band-Battle\PLANNING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityHub\Unity Projects\Band-Battle\PLANNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF412C-ADB8-4D87-8688-FCCF830EFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D744F06F-8B12-48E7-8B07-DF6090D6C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{70D4C62D-D84E-421C-8B35-459A60CD8044}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{70D4C62D-D84E-421C-8B35-459A60CD8044}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Legend</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>documentatie</t>
+  </si>
+  <si>
+    <t>completed task</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +865,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -984,12 +993,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1010,7 +1020,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1308,23 +1318,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A3149-64A1-48C5-9DC9-AA33BC653283}">
   <dimension ref="A1:BH95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AK16" sqref="AK16"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="60" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="60" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F1" s="59" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1347,7 @@
       <c r="M1" s="60"/>
       <c r="N1" s="61"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F2" s="32"/>
       <c r="G2" s="65" t="s">
         <v>2</v>
@@ -1350,7 +1360,7 @@
       <c r="M2" s="65"/>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F3" s="29"/>
       <c r="G3" s="65" t="s">
         <v>1</v>
@@ -1363,7 +1373,7 @@
       <c r="M3" s="65"/>
       <c r="N3" s="66"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="F4" s="31"/>
       <c r="G4" s="65" t="s">
         <v>25</v>
@@ -1376,7 +1386,7 @@
       <c r="M4" s="65"/>
       <c r="N4" s="66"/>
     </row>
-    <row r="5" spans="1:60" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="30"/>
       <c r="G5" s="67" t="s">
         <v>26</v>
@@ -1389,7 +1399,13 @@
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="7" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="F6" s="69"/>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -1469,7 +1485,7 @@
       <c r="BG7" s="63"/>
       <c r="BH7" s="64"/>
     </row>
-    <row r="8" spans="1:60" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="9"/>
       <c r="C8" s="15"/>
@@ -1645,7 +1661,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -1821,7 +1837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
@@ -1899,7 +1915,7 @@
       <c r="BG10" s="1"/>
       <c r="BH10" s="7"/>
     </row>
-    <row r="11" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1984,7 @@
       <c r="BG11" s="45"/>
       <c r="BH11" s="46"/>
     </row>
-    <row r="12" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>44</v>
       </c>
@@ -2004,7 +2020,7 @@
       <c r="BC12" s="57"/>
       <c r="BH12" s="36"/>
     </row>
-    <row r="13" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>46</v>
       </c>
@@ -2034,7 +2050,7 @@
       <c r="BC13" s="57"/>
       <c r="BH13" s="36"/>
     </row>
-    <row r="14" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>45</v>
       </c>
@@ -2064,7 +2080,7 @@
       <c r="BC14" s="57"/>
       <c r="BH14" s="36"/>
     </row>
-    <row r="15" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>30</v>
       </c>
@@ -2134,7 +2150,7 @@
       <c r="BG15" s="51"/>
       <c r="BH15" s="51"/>
     </row>
-    <row r="16" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>48</v>
       </c>
@@ -2144,6 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="35"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="36"/>
       <c r="L16" s="35"/>
       <c r="Q16" s="56"/>
@@ -2165,7 +2182,7 @@
       <c r="BC16" s="57"/>
       <c r="BH16" s="36"/>
     </row>
-    <row r="17" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>49</v>
       </c>
@@ -2175,6 +2192,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="35"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="36"/>
       <c r="L17" s="35"/>
       <c r="Q17" s="55"/>
@@ -2198,7 +2216,7 @@
       <c r="BC17" s="57"/>
       <c r="BH17" s="36"/>
     </row>
-    <row r="18" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>50</v>
       </c>
@@ -2208,6 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="35"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="36"/>
       <c r="L18" s="35"/>
       <c r="Q18" s="55"/>
@@ -2231,7 +2250,7 @@
       <c r="BC18" s="57"/>
       <c r="BH18" s="36"/>
     </row>
-    <row r="19" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>31</v>
       </c>
@@ -2301,7 +2320,7 @@
       <c r="BG19" s="51"/>
       <c r="BH19" s="51"/>
     </row>
-    <row r="20" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>51</v>
       </c>
@@ -2329,7 +2348,7 @@
       <c r="BC20" s="57"/>
       <c r="BH20" s="36"/>
     </row>
-    <row r="21" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>52</v>
       </c>
@@ -2358,7 +2377,7 @@
       <c r="BC21" s="57"/>
       <c r="BH21" s="36"/>
     </row>
-    <row r="22" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>68</v>
       </c>
@@ -2391,7 +2410,7 @@
       <c r="BC22" s="57"/>
       <c r="BH22" s="36"/>
     </row>
-    <row r="23" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>32</v>
       </c>
@@ -2459,7 +2478,7 @@
       <c r="BG23" s="51"/>
       <c r="BH23" s="51"/>
     </row>
-    <row r="24" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>53</v>
       </c>
@@ -2486,7 +2505,7 @@
       <c r="BC24" s="57"/>
       <c r="BH24" s="36"/>
     </row>
-    <row r="25" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>54</v>
       </c>
@@ -2513,7 +2532,7 @@
       <c r="BC25" s="57"/>
       <c r="BH25" s="36"/>
     </row>
-    <row r="26" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>55</v>
       </c>
@@ -2540,7 +2559,7 @@
       <c r="BC26" s="57"/>
       <c r="BH26" s="36"/>
     </row>
-    <row r="27" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>33</v>
       </c>
@@ -2606,7 +2625,7 @@
       <c r="BG27" s="51"/>
       <c r="BH27" s="51"/>
     </row>
-    <row r="28" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>56</v>
       </c>
@@ -2628,7 +2647,7 @@
       <c r="BC28" s="57"/>
       <c r="BH28" s="36"/>
     </row>
-    <row r="29" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>57</v>
       </c>
@@ -2650,7 +2669,7 @@
       <c r="BC29" s="57"/>
       <c r="BH29" s="36"/>
     </row>
-    <row r="30" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>34</v>
       </c>
@@ -2716,7 +2735,7 @@
       <c r="BG30" s="51"/>
       <c r="BH30" s="51"/>
     </row>
-    <row r="31" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>58</v>
       </c>
@@ -2738,7 +2757,7 @@
       <c r="BC31" s="57"/>
       <c r="BH31" s="36"/>
     </row>
-    <row r="32" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>59</v>
       </c>
@@ -2760,7 +2779,7 @@
       <c r="BC32" s="57"/>
       <c r="BH32" s="36"/>
     </row>
-    <row r="33" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>60</v>
       </c>
@@ -2782,7 +2801,7 @@
       <c r="BC33" s="57"/>
       <c r="BH33" s="36"/>
     </row>
-    <row r="34" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>61</v>
       </c>
@@ -2804,7 +2823,7 @@
       <c r="BC34" s="57"/>
       <c r="BH34" s="36"/>
     </row>
-    <row r="35" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>35</v>
       </c>
@@ -2870,7 +2889,7 @@
       <c r="BG35" s="51"/>
       <c r="BH35" s="51"/>
     </row>
-    <row r="36" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>62</v>
       </c>
@@ -2902,7 +2921,7 @@
       <c r="BC36" s="57"/>
       <c r="BH36" s="36"/>
     </row>
-    <row r="37" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>63</v>
       </c>
@@ -2929,7 +2948,7 @@
       <c r="BC37" s="57"/>
       <c r="BH37" s="36"/>
     </row>
-    <row r="38" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>64</v>
       </c>
@@ -2961,7 +2980,7 @@
       <c r="BC38" s="57"/>
       <c r="BH38" s="36"/>
     </row>
-    <row r="39" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>65</v>
       </c>
@@ -2988,7 +3007,7 @@
       <c r="BC39" s="57"/>
       <c r="BH39" s="36"/>
     </row>
-    <row r="40" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>66</v>
       </c>
@@ -3015,7 +3034,7 @@
       <c r="BC40" s="57"/>
       <c r="BH40" s="36"/>
     </row>
-    <row r="41" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>67</v>
       </c>
@@ -3042,7 +3061,7 @@
       <c r="BC41" s="57"/>
       <c r="BH41" s="36"/>
     </row>
-    <row r="42" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>36</v>
       </c>
@@ -3108,7 +3127,7 @@
       <c r="BG42" s="51"/>
       <c r="BH42" s="51"/>
     </row>
-    <row r="43" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>69</v>
       </c>
@@ -3140,7 +3159,7 @@
       <c r="BC43" s="57"/>
       <c r="BH43" s="36"/>
     </row>
-    <row r="44" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3164,7 +3183,7 @@
       <c r="BB44" s="35"/>
       <c r="BH44" s="36"/>
     </row>
-    <row r="45" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3188,7 +3207,7 @@
       <c r="BB45" s="35"/>
       <c r="BH45" s="36"/>
     </row>
-    <row r="46" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="25"/>
@@ -3212,7 +3231,7 @@
       <c r="BB46" s="35"/>
       <c r="BH46" s="36"/>
     </row>
-    <row r="47" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="25"/>
@@ -3236,7 +3255,7 @@
       <c r="BB47" s="35"/>
       <c r="BH47" s="36"/>
     </row>
-    <row r="48" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="25"/>
@@ -3260,7 +3279,7 @@
       <c r="BB48" s="35"/>
       <c r="BH48" s="36"/>
     </row>
-    <row r="49" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -3284,7 +3303,7 @@
       <c r="BB49" s="35"/>
       <c r="BH49" s="36"/>
     </row>
-    <row r="50" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3308,7 +3327,7 @@
       <c r="BB50" s="35"/>
       <c r="BH50" s="36"/>
     </row>
-    <row r="51" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
@@ -3332,7 +3351,7 @@
       <c r="BB51" s="35"/>
       <c r="BH51" s="36"/>
     </row>
-    <row r="52" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -3356,7 +3375,7 @@
       <c r="BB52" s="35"/>
       <c r="BH52" s="36"/>
     </row>
-    <row r="53" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3380,7 +3399,7 @@
       <c r="BB53" s="35"/>
       <c r="BH53" s="36"/>
     </row>
-    <row r="54" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3404,7 +3423,7 @@
       <c r="BB54" s="35"/>
       <c r="BH54" s="36"/>
     </row>
-    <row r="55" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -3428,7 +3447,7 @@
       <c r="BB55" s="35"/>
       <c r="BH55" s="36"/>
     </row>
-    <row r="56" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -3452,7 +3471,7 @@
       <c r="BB56" s="35"/>
       <c r="BH56" s="36"/>
     </row>
-    <row r="57" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3476,7 +3495,7 @@
       <c r="BB57" s="35"/>
       <c r="BH57" s="36"/>
     </row>
-    <row r="58" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3500,7 +3519,7 @@
       <c r="BB58" s="35"/>
       <c r="BH58" s="36"/>
     </row>
-    <row r="59" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3524,7 +3543,7 @@
       <c r="BB59" s="35"/>
       <c r="BH59" s="36"/>
     </row>
-    <row r="60" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -3548,7 +3567,7 @@
       <c r="BB60" s="35"/>
       <c r="BH60" s="36"/>
     </row>
-    <row r="61" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -3572,7 +3591,7 @@
       <c r="BB61" s="35"/>
       <c r="BH61" s="36"/>
     </row>
-    <row r="62" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -3596,7 +3615,7 @@
       <c r="BB62" s="35"/>
       <c r="BH62" s="36"/>
     </row>
-    <row r="63" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -3620,7 +3639,7 @@
       <c r="BB63" s="35"/>
       <c r="BH63" s="36"/>
     </row>
-    <row r="64" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -3644,7 +3663,7 @@
       <c r="BB64" s="35"/>
       <c r="BH64" s="36"/>
     </row>
-    <row r="65" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -3668,7 +3687,7 @@
       <c r="BB65" s="35"/>
       <c r="BH65" s="36"/>
     </row>
-    <row r="66" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -3692,7 +3711,7 @@
       <c r="BB66" s="35"/>
       <c r="BH66" s="36"/>
     </row>
-    <row r="67" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -3716,7 +3735,7 @@
       <c r="BB67" s="35"/>
       <c r="BH67" s="36"/>
     </row>
-    <row r="68" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -3740,7 +3759,7 @@
       <c r="BB68" s="35"/>
       <c r="BH68" s="36"/>
     </row>
-    <row r="69" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -3764,7 +3783,7 @@
       <c r="BB69" s="35"/>
       <c r="BH69" s="36"/>
     </row>
-    <row r="70" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -3788,7 +3807,7 @@
       <c r="BB70" s="35"/>
       <c r="BH70" s="36"/>
     </row>
-    <row r="71" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -3812,7 +3831,7 @@
       <c r="BB71" s="35"/>
       <c r="BH71" s="36"/>
     </row>
-    <row r="72" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -3836,7 +3855,7 @@
       <c r="BB72" s="35"/>
       <c r="BH72" s="36"/>
     </row>
-    <row r="73" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -3860,7 +3879,7 @@
       <c r="BB73" s="35"/>
       <c r="BH73" s="36"/>
     </row>
-    <row r="74" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -3884,7 +3903,7 @@
       <c r="BB74" s="35"/>
       <c r="BH74" s="36"/>
     </row>
-    <row r="75" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -3908,7 +3927,7 @@
       <c r="BB75" s="35"/>
       <c r="BH75" s="36"/>
     </row>
-    <row r="76" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -3932,7 +3951,7 @@
       <c r="BB76" s="35"/>
       <c r="BH76" s="36"/>
     </row>
-    <row r="77" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -3956,7 +3975,7 @@
       <c r="BB77" s="35"/>
       <c r="BH77" s="36"/>
     </row>
-    <row r="78" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -3980,7 +3999,7 @@
       <c r="BB78" s="35"/>
       <c r="BH78" s="36"/>
     </row>
-    <row r="79" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -4004,7 +4023,7 @@
       <c r="BB79" s="35"/>
       <c r="BH79" s="36"/>
     </row>
-    <row r="80" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4028,7 +4047,7 @@
       <c r="BB80" s="35"/>
       <c r="BH80" s="36"/>
     </row>
-    <row r="81" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -4052,7 +4071,7 @@
       <c r="BB81" s="35"/>
       <c r="BH81" s="36"/>
     </row>
-    <row r="82" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -4076,7 +4095,7 @@
       <c r="BB82" s="35"/>
       <c r="BH82" s="36"/>
     </row>
-    <row r="83" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -4100,7 +4119,7 @@
       <c r="BB83" s="35"/>
       <c r="BH83" s="36"/>
     </row>
-    <row r="84" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -4124,7 +4143,7 @@
       <c r="BB84" s="35"/>
       <c r="BH84" s="36"/>
     </row>
-    <row r="85" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -4148,7 +4167,7 @@
       <c r="BB85" s="35"/>
       <c r="BH85" s="36"/>
     </row>
-    <row r="86" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -4172,7 +4191,7 @@
       <c r="BB86" s="35"/>
       <c r="BH86" s="36"/>
     </row>
-    <row r="87" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -4196,7 +4215,7 @@
       <c r="BB87" s="35"/>
       <c r="BH87" s="36"/>
     </row>
-    <row r="88" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -4220,7 +4239,7 @@
       <c r="BB88" s="35"/>
       <c r="BH88" s="36"/>
     </row>
-    <row r="89" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -4244,7 +4263,7 @@
       <c r="BB89" s="35"/>
       <c r="BH89" s="36"/>
     </row>
-    <row r="90" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -4268,7 +4287,7 @@
       <c r="BB90" s="35"/>
       <c r="BH90" s="36"/>
     </row>
-    <row r="91" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -4292,7 +4311,7 @@
       <c r="BB91" s="35"/>
       <c r="BH91" s="36"/>
     </row>
-    <row r="92" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -4316,7 +4335,7 @@
       <c r="BB92" s="35"/>
       <c r="BH92" s="36"/>
     </row>
-    <row r="93" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -4340,7 +4359,7 @@
       <c r="BB93" s="35"/>
       <c r="BH93" s="36"/>
     </row>
-    <row r="94" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -4364,7 +4383,7 @@
       <c r="BB94" s="35"/>
       <c r="BH94" s="36"/>
     </row>
-    <row r="95" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -4463,18 +4482,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4616,14 +4635,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4962763A-021A-4368-9A4A-00367974B297}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4636,6 +4647,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PLANNING/Task Planning.xlsx
+++ b/PLANNING/Task Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityHub\Unity Projects\Band-Battle\PLANNING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareProjects\Unity\Band-Battle\PLANNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D744F06F-8B12-48E7-8B07-DF6090D6C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16866B8E-DCFF-4E98-B977-2D2DE5F0E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{70D4C62D-D84E-421C-8B35-459A60CD8044}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{70D4C62D-D84E-421C-8B35-459A60CD8044}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Legend</t>
   </si>
@@ -170,18 +170,6 @@
     <t>Everyone</t>
   </si>
   <si>
-    <t>Guitar Minigame</t>
-  </si>
-  <si>
-    <t>Mic Minigame</t>
-  </si>
-  <si>
-    <t>Drum Minigame</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Controller Support</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>Implement in code</t>
   </si>
   <si>
-    <t>Implement Game phases</t>
-  </si>
-  <si>
     <t>Implement Instrument puicking</t>
   </si>
   <si>
@@ -249,6 +234,18 @@
   </si>
   <si>
     <t>completed task</t>
+  </si>
+  <si>
+    <t>Implement Combat Phase</t>
+  </si>
+  <si>
+    <t>Implement Playing Phase</t>
+  </si>
+  <si>
+    <t>General Minigame</t>
+  </si>
+  <si>
+    <t>MIDI to beatmap</t>
   </si>
 </sst>
 </file>
@@ -312,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +868,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -963,6 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,13 +997,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,7 +1024,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1319,173 +1323,173 @@
   <dimension ref="A1:BH95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="60" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="60" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F2" s="32"/>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F3" s="29"/>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F4" s="31"/>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
-    </row>
-    <row r="5" spans="1:60" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:60" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="30"/>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="F6" s="69"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="F6" s="59"/>
       <c r="G6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="62" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="62" t="s">
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="62" t="s">
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="62" t="s">
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="62" t="s">
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="62" t="s">
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="62" t="s">
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="65"/>
+      <c r="BB7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="64"/>
-    </row>
-    <row r="8" spans="1:60" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="65"/>
+    </row>
+    <row r="8" spans="1:60" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="9"/>
       <c r="C8" s="15"/>
@@ -1661,7 +1665,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" ht="30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -1837,7 +1841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1919,7 @@
       <c r="BG10" s="1"/>
       <c r="BH10" s="7"/>
     </row>
-    <row r="11" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>29</v>
       </c>
@@ -1984,9 +1988,9 @@
       <c r="BG11" s="45"/>
       <c r="BH11" s="46"/>
     </row>
-    <row r="12" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -2009,8 +2013,14 @@
       <c r="S12" s="35"/>
       <c r="Y12" s="54"/>
       <c r="Z12" s="35"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="35"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="54"/>
       <c r="AM12" s="36"/>
       <c r="AN12" s="35"/>
       <c r="AT12" s="58"/>
@@ -2020,29 +2030,45 @@
       <c r="BC12" s="57"/>
       <c r="BH12" s="36"/>
     </row>
-    <row r="13" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>47</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="33">
         <v>0</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="35"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="35"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="35"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="35"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="50"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="54"/>
       <c r="AT13" s="58"/>
       <c r="AU13" s="35"/>
       <c r="BA13" s="36"/>
@@ -2050,109 +2076,111 @@
       <c r="BC13" s="57"/>
       <c r="BH13" s="36"/>
     </row>
-    <row r="14" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+    </row>
+    <row r="15" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="33">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="35"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="54"/>
+      <c r="Y15" s="48"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="35"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="35"/>
+      <c r="AT15" s="58"/>
+      <c r="AU15" s="35"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="57"/>
+      <c r="BH15" s="36"/>
+    </row>
+    <row r="16" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="33">
-        <v>0</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="35"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="35"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="35"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="35"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="35"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="35"/>
-      <c r="BC14" s="57"/>
-      <c r="BH14" s="36"/>
-    </row>
-    <row r="15" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="33">
-        <v>0</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="57"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-    </row>
-    <row r="16" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
@@ -2160,17 +2188,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="J16" s="69"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="36"/>
       <c r="L16" s="35"/>
-      <c r="Q16" s="56"/>
+      <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
       <c r="V16" s="55"/>
-      <c r="W16" s="54"/>
-      <c r="Y16" s="48"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="35"/>
       <c r="AF16" s="36"/>
       <c r="AG16" s="35"/>
       <c r="AM16" s="36"/>
@@ -2182,9 +2212,9 @@
       <c r="BC16" s="57"/>
       <c r="BH16" s="36"/>
     </row>
-    <row r="17" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
@@ -2192,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="35"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="36"/>
       <c r="L17" s="35"/>
       <c r="Q17" s="55"/>
@@ -2216,113 +2246,107 @@
       <c r="BC17" s="57"/>
       <c r="BH17" s="36"/>
     </row>
-    <row r="18" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+    <row r="18" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="33">
         <v>0</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="35"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="35"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="35"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="35"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
       <c r="AT18" s="58"/>
-      <c r="AU18" s="35"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="35"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
       <c r="BC18" s="57"/>
-      <c r="BH18" s="36"/>
-    </row>
-    <row r="19" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+    </row>
+    <row r="19" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="33">
         <v>0</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="E19" s="35"/>
+      <c r="H19" s="54"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="35"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="35"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="35"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="35"/>
       <c r="AT19" s="58"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
+      <c r="AU19" s="35"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="35"/>
       <c r="BC19" s="57"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-    </row>
-    <row r="20" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BH19" s="36"/>
+    </row>
+    <row r="20" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -2330,12 +2354,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="35"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="56"/>
       <c r="K20" s="36"/>
       <c r="L20" s="35"/>
       <c r="R20" s="36"/>
       <c r="S20" s="35"/>
-      <c r="Y20" s="36"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
       <c r="Z20" s="35"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="35"/>
@@ -2348,9 +2373,9 @@
       <c r="BC20" s="57"/>
       <c r="BH20" s="36"/>
     </row>
-    <row r="21" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
@@ -2362,9 +2387,13 @@
       <c r="K21" s="36"/>
       <c r="L21" s="35"/>
       <c r="R21" s="36"/>
-      <c r="S21" s="35"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="54"/>
       <c r="Z21" s="35"/>
       <c r="AF21" s="36"/>
       <c r="AG21" s="35"/>
@@ -2377,110 +2406,114 @@
       <c r="BC21" s="57"/>
       <c r="BH21" s="36"/>
     </row>
-    <row r="22" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+    <row r="22" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="25"/>
       <c r="D22" s="33">
         <v>0</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="H22" s="56"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="35"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="35"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="35"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="35"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
       <c r="AT22" s="58"/>
-      <c r="AU22" s="35"/>
-      <c r="BA22" s="36"/>
-      <c r="BB22" s="35"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
       <c r="BC22" s="57"/>
-      <c r="BH22" s="36"/>
-    </row>
-    <row r="23" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>43</v>
-      </c>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+    </row>
+    <row r="23" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="33">
         <v>0</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
+      <c r="E23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="35"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="35"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="35"/>
       <c r="AT23" s="58"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
-      <c r="BB23" s="51"/>
+      <c r="AU23" s="35"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="35"/>
       <c r="BC23" s="57"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="51"/>
-    </row>
-    <row r="24" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BH23" s="36"/>
+    </row>
+    <row r="24" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -2494,7 +2527,12 @@
       <c r="S24" s="35"/>
       <c r="Y24" s="36"/>
       <c r="Z24" s="35"/>
-      <c r="AF24" s="36"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
       <c r="AG24" s="35"/>
       <c r="AM24" s="54"/>
       <c r="AN24" s="35"/>
@@ -2505,9 +2543,9 @@
       <c r="BC24" s="57"/>
       <c r="BH24" s="36"/>
     </row>
-    <row r="25" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2532,9 +2570,9 @@
       <c r="BC25" s="57"/>
       <c r="BH25" s="36"/>
     </row>
-    <row r="26" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2559,7 +2597,7 @@
       <c r="BC26" s="57"/>
       <c r="BH26" s="36"/>
     </row>
-    <row r="27" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>33</v>
       </c>
@@ -2625,9 +2663,9 @@
       <c r="BG27" s="51"/>
       <c r="BH27" s="51"/>
     </row>
-    <row r="28" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2647,9 +2685,9 @@
       <c r="BC28" s="57"/>
       <c r="BH28" s="36"/>
     </row>
-    <row r="29" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2669,7 +2707,7 @@
       <c r="BC29" s="57"/>
       <c r="BH29" s="36"/>
     </row>
-    <row r="30" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>34</v>
       </c>
@@ -2735,9 +2773,9 @@
       <c r="BG30" s="51"/>
       <c r="BH30" s="51"/>
     </row>
-    <row r="31" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -2757,9 +2795,9 @@
       <c r="BC31" s="57"/>
       <c r="BH31" s="36"/>
     </row>
-    <row r="32" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2779,11 +2817,13 @@
       <c r="BC32" s="57"/>
       <c r="BH32" s="36"/>
     </row>
-    <row r="33" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="C33" s="25"/>
       <c r="D33" s="33">
         <v>0</v>
@@ -2795,15 +2835,22 @@
       <c r="S33" s="35"/>
       <c r="Y33" s="36"/>
       <c r="Z33" s="35"/>
-      <c r="AF33" s="36"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="54"/>
       <c r="AT33" s="58"/>
       <c r="BB33" s="35"/>
       <c r="BC33" s="57"/>
       <c r="BH33" s="36"/>
     </row>
-    <row r="34" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -2823,7 +2870,7 @@
       <c r="BC34" s="57"/>
       <c r="BH34" s="36"/>
     </row>
-    <row r="35" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
         <v>35</v>
       </c>
@@ -2889,9 +2936,9 @@
       <c r="BG35" s="51"/>
       <c r="BH35" s="51"/>
     </row>
-    <row r="36" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -2921,9 +2968,9 @@
       <c r="BC36" s="57"/>
       <c r="BH36" s="36"/>
     </row>
-    <row r="37" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -2948,9 +2995,9 @@
       <c r="BC37" s="57"/>
       <c r="BH37" s="36"/>
     </row>
-    <row r="38" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -2980,9 +3027,9 @@
       <c r="BC38" s="57"/>
       <c r="BH38" s="36"/>
     </row>
-    <row r="39" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3007,9 +3054,9 @@
       <c r="BC39" s="57"/>
       <c r="BH39" s="36"/>
     </row>
-    <row r="40" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3034,9 +3081,9 @@
       <c r="BC40" s="57"/>
       <c r="BH40" s="36"/>
     </row>
-    <row r="41" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3061,7 +3108,7 @@
       <c r="BC41" s="57"/>
       <c r="BH41" s="36"/>
     </row>
-    <row r="42" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="52" t="s">
         <v>36</v>
       </c>
@@ -3127,9 +3174,9 @@
       <c r="BG42" s="51"/>
       <c r="BH42" s="51"/>
     </row>
-    <row r="43" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3159,7 +3206,7 @@
       <c r="BC43" s="57"/>
       <c r="BH43" s="36"/>
     </row>
-    <row r="44" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3183,7 +3230,7 @@
       <c r="BB44" s="35"/>
       <c r="BH44" s="36"/>
     </row>
-    <row r="45" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3207,7 +3254,7 @@
       <c r="BB45" s="35"/>
       <c r="BH45" s="36"/>
     </row>
-    <row r="46" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="25"/>
@@ -3231,7 +3278,7 @@
       <c r="BB46" s="35"/>
       <c r="BH46" s="36"/>
     </row>
-    <row r="47" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="25"/>
@@ -3255,7 +3302,7 @@
       <c r="BB47" s="35"/>
       <c r="BH47" s="36"/>
     </row>
-    <row r="48" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="25"/>
@@ -3279,7 +3326,7 @@
       <c r="BB48" s="35"/>
       <c r="BH48" s="36"/>
     </row>
-    <row r="49" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -3303,7 +3350,7 @@
       <c r="BB49" s="35"/>
       <c r="BH49" s="36"/>
     </row>
-    <row r="50" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -3327,7 +3374,7 @@
       <c r="BB50" s="35"/>
       <c r="BH50" s="36"/>
     </row>
-    <row r="51" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="21"/>
@@ -3351,7 +3398,7 @@
       <c r="BB51" s="35"/>
       <c r="BH51" s="36"/>
     </row>
-    <row r="52" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -3375,7 +3422,7 @@
       <c r="BB52" s="35"/>
       <c r="BH52" s="36"/>
     </row>
-    <row r="53" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3399,7 +3446,7 @@
       <c r="BB53" s="35"/>
       <c r="BH53" s="36"/>
     </row>
-    <row r="54" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3423,7 +3470,7 @@
       <c r="BB54" s="35"/>
       <c r="BH54" s="36"/>
     </row>
-    <row r="55" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -3447,7 +3494,7 @@
       <c r="BB55" s="35"/>
       <c r="BH55" s="36"/>
     </row>
-    <row r="56" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -3471,7 +3518,7 @@
       <c r="BB56" s="35"/>
       <c r="BH56" s="36"/>
     </row>
-    <row r="57" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3495,7 +3542,7 @@
       <c r="BB57" s="35"/>
       <c r="BH57" s="36"/>
     </row>
-    <row r="58" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3519,7 +3566,7 @@
       <c r="BB58" s="35"/>
       <c r="BH58" s="36"/>
     </row>
-    <row r="59" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3543,7 +3590,7 @@
       <c r="BB59" s="35"/>
       <c r="BH59" s="36"/>
     </row>
-    <row r="60" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -3567,7 +3614,7 @@
       <c r="BB60" s="35"/>
       <c r="BH60" s="36"/>
     </row>
-    <row r="61" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -3591,7 +3638,7 @@
       <c r="BB61" s="35"/>
       <c r="BH61" s="36"/>
     </row>
-    <row r="62" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -3615,7 +3662,7 @@
       <c r="BB62" s="35"/>
       <c r="BH62" s="36"/>
     </row>
-    <row r="63" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -3639,7 +3686,7 @@
       <c r="BB63" s="35"/>
       <c r="BH63" s="36"/>
     </row>
-    <row r="64" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -3663,7 +3710,7 @@
       <c r="BB64" s="35"/>
       <c r="BH64" s="36"/>
     </row>
-    <row r="65" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -3687,7 +3734,7 @@
       <c r="BB65" s="35"/>
       <c r="BH65" s="36"/>
     </row>
-    <row r="66" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -3711,7 +3758,7 @@
       <c r="BB66" s="35"/>
       <c r="BH66" s="36"/>
     </row>
-    <row r="67" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -3735,7 +3782,7 @@
       <c r="BB67" s="35"/>
       <c r="BH67" s="36"/>
     </row>
-    <row r="68" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -3759,7 +3806,7 @@
       <c r="BB68" s="35"/>
       <c r="BH68" s="36"/>
     </row>
-    <row r="69" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -3783,7 +3830,7 @@
       <c r="BB69" s="35"/>
       <c r="BH69" s="36"/>
     </row>
-    <row r="70" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -3807,7 +3854,7 @@
       <c r="BB70" s="35"/>
       <c r="BH70" s="36"/>
     </row>
-    <row r="71" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -3831,7 +3878,7 @@
       <c r="BB71" s="35"/>
       <c r="BH71" s="36"/>
     </row>
-    <row r="72" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -3855,7 +3902,7 @@
       <c r="BB72" s="35"/>
       <c r="BH72" s="36"/>
     </row>
-    <row r="73" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -3879,7 +3926,7 @@
       <c r="BB73" s="35"/>
       <c r="BH73" s="36"/>
     </row>
-    <row r="74" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -3903,7 +3950,7 @@
       <c r="BB74" s="35"/>
       <c r="BH74" s="36"/>
     </row>
-    <row r="75" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -3927,7 +3974,7 @@
       <c r="BB75" s="35"/>
       <c r="BH75" s="36"/>
     </row>
-    <row r="76" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -3951,7 +3998,7 @@
       <c r="BB76" s="35"/>
       <c r="BH76" s="36"/>
     </row>
-    <row r="77" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -3975,7 +4022,7 @@
       <c r="BB77" s="35"/>
       <c r="BH77" s="36"/>
     </row>
-    <row r="78" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -3999,7 +4046,7 @@
       <c r="BB78" s="35"/>
       <c r="BH78" s="36"/>
     </row>
-    <row r="79" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -4023,7 +4070,7 @@
       <c r="BB79" s="35"/>
       <c r="BH79" s="36"/>
     </row>
-    <row r="80" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4047,7 +4094,7 @@
       <c r="BB80" s="35"/>
       <c r="BH80" s="36"/>
     </row>
-    <row r="81" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -4071,7 +4118,7 @@
       <c r="BB81" s="35"/>
       <c r="BH81" s="36"/>
     </row>
-    <row r="82" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -4095,7 +4142,7 @@
       <c r="BB82" s="35"/>
       <c r="BH82" s="36"/>
     </row>
-    <row r="83" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -4119,7 +4166,7 @@
       <c r="BB83" s="35"/>
       <c r="BH83" s="36"/>
     </row>
-    <row r="84" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -4143,7 +4190,7 @@
       <c r="BB84" s="35"/>
       <c r="BH84" s="36"/>
     </row>
-    <row r="85" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -4167,7 +4214,7 @@
       <c r="BB85" s="35"/>
       <c r="BH85" s="36"/>
     </row>
-    <row r="86" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -4191,7 +4238,7 @@
       <c r="BB86" s="35"/>
       <c r="BH86" s="36"/>
     </row>
-    <row r="87" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -4215,7 +4262,7 @@
       <c r="BB87" s="35"/>
       <c r="BH87" s="36"/>
     </row>
-    <row r="88" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -4239,7 +4286,7 @@
       <c r="BB88" s="35"/>
       <c r="BH88" s="36"/>
     </row>
-    <row r="89" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -4263,7 +4310,7 @@
       <c r="BB89" s="35"/>
       <c r="BH89" s="36"/>
     </row>
-    <row r="90" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -4287,7 +4334,7 @@
       <c r="BB90" s="35"/>
       <c r="BH90" s="36"/>
     </row>
-    <row r="91" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -4311,7 +4358,7 @@
       <c r="BB91" s="35"/>
       <c r="BH91" s="36"/>
     </row>
-    <row r="92" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -4335,7 +4382,7 @@
       <c r="BB92" s="35"/>
       <c r="BH92" s="36"/>
     </row>
-    <row r="93" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -4359,7 +4406,7 @@
       <c r="BB93" s="35"/>
       <c r="BH93" s="36"/>
     </row>
-    <row r="94" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -4383,7 +4430,7 @@
       <c r="BB94" s="35"/>
       <c r="BH94" s="36"/>
     </row>
-    <row r="95" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -4465,7 +4512,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D11:D95">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4482,18 +4529,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4635,6 +4682,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4962763A-021A-4368-9A4A-00367974B297}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4647,14 +4702,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PLANNING/Task Planning.xlsx
+++ b/PLANNING/Task Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareProjects\Unity\Band-Battle\PLANNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16866B8E-DCFF-4E98-B977-2D2DE5F0E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E50147-2DCE-4512-9713-7A13DF64F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{70D4C62D-D84E-421C-8B35-459A60CD8044}"/>
   </bookViews>
@@ -967,6 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,7 +998,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -1326,7 +1326,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
+      <selection pane="bottomRight" activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,69 +1339,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
+      <c r="F1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F2" s="32"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F3" s="29"/>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F4" s="31"/>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:60" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="30"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F6" s="59"/>
@@ -1416,78 +1416,78 @@
       <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="63" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="63" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="63" t="s">
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="63" t="s">
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="63" t="s">
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="63" t="s">
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="63" t="s">
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="65"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="BC7" s="64"/>
-      <c r="BD7" s="64"/>
-      <c r="BE7" s="64"/>
-      <c r="BF7" s="64"/>
-      <c r="BG7" s="64"/>
-      <c r="BH7" s="65"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="65"/>
+      <c r="BE7" s="65"/>
+      <c r="BF7" s="65"/>
+      <c r="BG7" s="65"/>
+      <c r="BH7" s="66"/>
     </row>
     <row r="8" spans="1:60" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
@@ -2055,13 +2055,13 @@
       <c r="W13" s="50"/>
       <c r="Y13" s="49"/>
       <c r="Z13" s="50"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
       <c r="AI13" s="55"/>
       <c r="AJ13" s="55"/>
       <c r="AK13" s="55"/>
@@ -2790,6 +2790,13 @@
       <c r="Y31" s="36"/>
       <c r="Z31" s="35"/>
       <c r="AF31" s="36"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="54"/>
       <c r="AT31" s="58"/>
       <c r="BB31" s="35"/>
       <c r="BC31" s="57"/>
@@ -4529,18 +4536,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4682,14 +4689,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4962763A-021A-4368-9A4A-00367974B297}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4702,6 +4701,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33C0204-9DCF-4E21-BC5C-7978C236823E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
